--- a/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-GR-groen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-GR-groen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen-verkort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D0346A56-BF04-41BA-9493-E69FFE7385BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{59D94990-3445-4B41-8910-7DE93ACD5668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3528DDCC-7694-4394-9DC2-58B8C152A1B7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FC093FB9-F46D-4520-A7F4-A18F0AB85552}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-GR-groen" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="248">
   <si>
     <t>hoofdgroep</t>
   </si>
@@ -226,6 +226,9 @@
     <t>BOOMTEELT</t>
   </si>
   <si>
+    <t>HAAG</t>
+  </si>
+  <si>
     <t>FRUITTEELT</t>
   </si>
   <si>
@@ -367,6 +370,9 @@
     <t>FRUITTEELT_BOOMGAARD_HOOGSTAM</t>
   </si>
   <si>
+    <t>GRAS_KRAT</t>
+  </si>
+  <si>
     <t>BOOM_VORM</t>
   </si>
   <si>
@@ -409,6 +415,9 @@
     <t>BOOM_KNOT_IN CONTAINER</t>
   </si>
   <si>
+    <t>BOOM_KNOT_STAAK</t>
+  </si>
+  <si>
     <t>BOOM_KNOT_ZONDER KLUIT</t>
   </si>
   <si>
@@ -439,6 +448,9 @@
     <t>BOOM_LEI_IN CONTAINER</t>
   </si>
   <si>
+    <t>BOOM_LEI_ZONDER KLUIT</t>
+  </si>
+  <si>
     <t>GRIEND</t>
   </si>
   <si>
@@ -451,6 +463,9 @@
     <t>DOORWORTELBARE RUIMTE</t>
   </si>
   <si>
+    <t>GRAS_BLOEMRIJK</t>
+  </si>
+  <si>
     <t>GRONDVERBETERING_BOMENGROND</t>
   </si>
   <si>
@@ -565,6 +580,15 @@
     <t>BOOM_KNOT_IN CONTAINER_2E GROOTTE</t>
   </si>
   <si>
+    <t>BOOM_KNOT_STAAK_2E GROOTTE</t>
+  </si>
+  <si>
+    <t>BOOM_KNOT_STAAK_1E GROOTTE</t>
+  </si>
+  <si>
+    <t>BOOM_KNOT_STAAK_3E GROOTTE</t>
+  </si>
+  <si>
     <t>BOOM_KNOT_ZONDER KLUIT_2E GROOTTE</t>
   </si>
   <si>
@@ -601,6 +625,15 @@
     <t>BOOM_LEI_IN CONTAINER_3E GROOTTE</t>
   </si>
   <si>
+    <t>BOOM_LEI_ZONDER KLUIT_3E GROOTTE</t>
+  </si>
+  <si>
+    <t>BOOM_LEI_ZONDER KLUIT_1E GROOTTE</t>
+  </si>
+  <si>
+    <t>BOOM_LEI_ZONDER KLUIT_2E GROOTTE</t>
+  </si>
+  <si>
     <t>BOOM_VORM_IN CONTAINER_1E GROOTTE</t>
   </si>
   <si>
@@ -734,39 +767,6 @@
   </si>
   <si>
     <t>BOOM_LAAGSTAM_IN CONTAINER_1E GROOTTE</t>
-  </si>
-  <si>
-    <t>HAAG</t>
-  </si>
-  <si>
-    <t>GRAS_BLOEMRIJK</t>
-  </si>
-  <si>
-    <t>BOOM_KNOT_STAAK</t>
-  </si>
-  <si>
-    <t>BOOM_LEI_ZONDER KLUIT</t>
-  </si>
-  <si>
-    <t>BOOM_KNOT_STAAK_2E GROOTTE</t>
-  </si>
-  <si>
-    <t>BOOM_KNOT_STAAK_1E GROOTTE</t>
-  </si>
-  <si>
-    <t>BOOM_KNOT_STAAK_3E GROOTTE</t>
-  </si>
-  <si>
-    <t>BOOM_LEI_ZONDER KLUIT_3E GROOTTE</t>
-  </si>
-  <si>
-    <t>BOOM_LEI_ZONDER KLUIT_1E GROOTTE</t>
-  </si>
-  <si>
-    <t>BOOM_LEI_ZONDER KLUIT_2E GROOTTE</t>
-  </si>
-  <si>
-    <t>GRAS_KRAT</t>
   </si>
 </sst>
 </file>
@@ -1626,12 +1626,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFCB9C8-D392-4191-A97F-C84CACD3AE44}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6403CEB-2A2A-412E-90F1-02903395DB77}">
   <dimension ref="A1:AJ192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+    <sheetView tabSelected="1" topLeftCell="P7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1749,7 +1748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1850,7 +1849,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1954,7 +1953,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1962,7 +1961,7 @@
         <v>2889</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4">
         <v>2885</v>
@@ -2058,7 +2057,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2066,7 +2065,7 @@
         <v>2887</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5">
         <v>2885</v>
@@ -2096,7 +2095,7 @@
         <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N5" t="s">
         <v>42</v>
@@ -2117,7 +2116,7 @@
         <v>253</v>
       </c>
       <c r="T5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s">
         <v>42</v>
@@ -2138,7 +2137,7 @@
         <v>253</v>
       </c>
       <c r="AA5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s">
         <v>42</v>
@@ -2159,10 +2158,10 @@
         <v>253</v>
       </c>
       <c r="AH5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2170,7 +2169,7 @@
         <v>2891</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6">
         <v>2885</v>
@@ -2266,12 +2265,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D7">
         <v>2885</v>
@@ -2367,12 +2366,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D8">
         <v>2885</v>
@@ -2468,7 +2467,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2574,7 +2573,7 @@
         <v>2890</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10">
         <v>2885</v>
@@ -2670,7 +2669,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2774,7 +2773,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2878,7 +2877,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -2982,7 +2981,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -2990,7 +2989,7 @@
         <v>3384</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E14" t="s">
         <v>38</v>
@@ -3083,7 +3082,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -3184,12 +3183,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D16">
         <v>360</v>
@@ -3285,12 +3284,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E17" t="s">
         <v>38</v>
@@ -3383,12 +3382,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
@@ -3481,12 +3480,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
@@ -3579,12 +3578,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E20" t="s">
         <v>38</v>
@@ -3677,12 +3676,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E21" t="s">
         <v>38</v>
@@ -3775,12 +3774,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E22" t="s">
         <v>38</v>
@@ -3873,12 +3872,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E23" t="s">
         <v>38</v>
@@ -3971,12 +3970,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E24" t="s">
         <v>38</v>
@@ -4069,12 +4068,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E25" t="s">
         <v>38</v>
@@ -4167,12 +4166,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E26" t="s">
         <v>38</v>
@@ -4265,12 +4264,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E27" t="s">
         <v>38</v>
@@ -4363,12 +4362,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E28" t="s">
         <v>38</v>
@@ -4461,12 +4460,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E29" t="s">
         <v>38</v>
@@ -4559,12 +4558,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
@@ -4657,12 +4656,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E31" t="s">
         <v>38</v>
@@ -4755,12 +4754,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D32">
         <v>360</v>
@@ -4856,12 +4855,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
@@ -4954,12 +4953,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E34" t="s">
         <v>38</v>
@@ -5052,12 +5051,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E35" t="s">
         <v>38</v>
@@ -5150,12 +5149,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E36" t="s">
         <v>38</v>
@@ -5248,12 +5247,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E37" t="s">
         <v>38</v>
@@ -5346,12 +5345,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
@@ -5444,12 +5443,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E39" t="s">
         <v>38</v>
@@ -5542,12 +5541,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
@@ -5640,12 +5639,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E41" t="s">
         <v>38</v>
@@ -5738,12 +5737,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="E42" t="s">
         <v>38</v>
@@ -5836,12 +5835,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E43" t="s">
         <v>38</v>
@@ -5934,12 +5933,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E44" t="s">
         <v>38</v>
@@ -6032,12 +6031,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="E45" t="s">
         <v>38</v>
@@ -6130,12 +6129,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E46" t="s">
         <v>38</v>
@@ -6228,12 +6227,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E47" t="s">
         <v>38</v>
@@ -6326,12 +6325,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D48">
         <v>360</v>
@@ -6427,12 +6426,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D49">
         <v>360</v>
@@ -6528,7 +6527,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -6536,7 +6535,7 @@
         <v>363</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D50">
         <v>360</v>
@@ -6632,7 +6631,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -6640,7 +6639,7 @@
         <v>362</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D51">
         <v>360</v>
@@ -6736,7 +6735,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -6744,7 +6743,7 @@
         <v>2905</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D52">
         <v>360</v>
@@ -6840,12 +6839,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D53">
         <v>2905</v>
@@ -6941,12 +6940,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D54">
         <v>2905</v>
@@ -7042,12 +7041,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D55">
         <v>2905</v>
@@ -7143,12 +7142,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D56">
         <v>2905</v>
@@ -7244,12 +7243,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E57" t="s">
         <v>38</v>
@@ -7342,12 +7341,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E58" t="s">
         <v>38</v>
@@ -7440,12 +7439,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E59" t="s">
         <v>38</v>
@@ -7538,12 +7537,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D60">
         <v>2905</v>
@@ -7639,12 +7638,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E61" t="s">
         <v>38</v>
@@ -7737,12 +7736,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E62" t="s">
         <v>38</v>
@@ -7835,12 +7834,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E63" t="s">
         <v>38</v>
@@ -7938,7 +7937,7 @@
         <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="D64">
         <v>2905</v>
@@ -8010,6 +8009,27 @@
         <v>253</v>
       </c>
       <c r="AA64" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC64">
+        <v>80</v>
+      </c>
+      <c r="AD64">
+        <v>82</v>
+      </c>
+      <c r="AE64">
+        <v>80</v>
+      </c>
+      <c r="AF64">
+        <v>80</v>
+      </c>
+      <c r="AG64">
+        <v>253</v>
+      </c>
+      <c r="AH64" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8018,7 +8038,7 @@
         <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="E65" t="s">
         <v>38</v>
@@ -8087,6 +8107,27 @@
         <v>253</v>
       </c>
       <c r="AA65" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC65">
+        <v>80</v>
+      </c>
+      <c r="AD65">
+        <v>82</v>
+      </c>
+      <c r="AE65">
+        <v>80</v>
+      </c>
+      <c r="AF65">
+        <v>80</v>
+      </c>
+      <c r="AG65">
+        <v>253</v>
+      </c>
+      <c r="AH65" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8095,7 +8136,7 @@
         <v>36</v>
       </c>
       <c r="C66" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="E66" t="s">
         <v>38</v>
@@ -8164,6 +8205,27 @@
         <v>253</v>
       </c>
       <c r="AA66" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC66">
+        <v>80</v>
+      </c>
+      <c r="AD66">
+        <v>82</v>
+      </c>
+      <c r="AE66">
+        <v>80</v>
+      </c>
+      <c r="AF66">
+        <v>80</v>
+      </c>
+      <c r="AG66">
+        <v>253</v>
+      </c>
+      <c r="AH66" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8172,7 +8234,7 @@
         <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="E67" t="s">
         <v>38</v>
@@ -8243,13 +8305,34 @@
       <c r="AA67" t="s">
         <v>41</v>
       </c>
+      <c r="AB67" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC67">
+        <v>80</v>
+      </c>
+      <c r="AD67">
+        <v>82</v>
+      </c>
+      <c r="AE67">
+        <v>80</v>
+      </c>
+      <c r="AF67">
+        <v>80</v>
+      </c>
+      <c r="AG67">
+        <v>253</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="68" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D68">
         <v>2905</v>
@@ -8345,12 +8428,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>36</v>
       </c>
       <c r="C69" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E69" t="s">
         <v>38</v>
@@ -8443,12 +8526,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>36</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E70" t="s">
         <v>38</v>
@@ -8541,12 +8624,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>36</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E71" t="s">
         <v>38</v>
@@ -8639,7 +8722,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>36</v>
       </c>
@@ -8647,7 +8730,7 @@
         <v>3503</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D72">
         <v>360</v>
@@ -8743,12 +8826,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>36</v>
       </c>
       <c r="C73" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D73">
         <v>360</v>
@@ -8844,12 +8927,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>36</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E74" t="s">
         <v>38</v>
@@ -8942,12 +9025,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>36</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E75" t="s">
         <v>38</v>
@@ -9040,12 +9123,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>36</v>
       </c>
       <c r="C76" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E76" t="s">
         <v>38</v>
@@ -9138,12 +9221,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E77" t="s">
         <v>38</v>
@@ -9236,12 +9319,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>36</v>
       </c>
       <c r="C78" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="E78" t="s">
         <v>38</v>
@@ -9334,12 +9417,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>36</v>
       </c>
       <c r="C79" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E79" t="s">
         <v>38</v>
@@ -9432,12 +9515,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>36</v>
       </c>
       <c r="C80" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="E80" t="s">
         <v>38</v>
@@ -9530,12 +9613,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E81" t="s">
         <v>38</v>
@@ -9628,12 +9711,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>36</v>
       </c>
       <c r="C82" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E82" t="s">
         <v>38</v>
@@ -9726,12 +9809,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>36</v>
       </c>
       <c r="C83" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E83" t="s">
         <v>38</v>
@@ -9824,12 +9907,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>36</v>
       </c>
       <c r="C84" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="E84" t="s">
         <v>38</v>
@@ -9922,12 +10005,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>36</v>
       </c>
       <c r="C85" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E85" t="s">
         <v>38</v>
@@ -10020,12 +10103,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="E86" t="s">
         <v>38</v>
@@ -10118,12 +10201,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>36</v>
       </c>
       <c r="C87" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
@@ -10216,12 +10299,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>36</v>
       </c>
       <c r="C88" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E88" t="s">
         <v>38</v>
@@ -10314,7 +10397,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -10322,7 +10405,7 @@
         <v>2904</v>
       </c>
       <c r="C89" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D89">
         <v>360</v>
@@ -10418,12 +10501,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D90">
         <v>2904</v>
@@ -10519,12 +10602,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D91">
         <v>2904</v>
@@ -10620,12 +10703,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>36</v>
       </c>
       <c r="C92" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D92">
         <v>2904</v>
@@ -10721,12 +10804,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>36</v>
       </c>
       <c r="C93" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D93">
         <v>2904</v>
@@ -10822,12 +10905,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E94" t="s">
         <v>38</v>
@@ -10920,12 +11003,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E95" t="s">
         <v>38</v>
@@ -11018,12 +11101,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E96" t="s">
         <v>38</v>
@@ -11116,12 +11199,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>36</v>
       </c>
       <c r="C97" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D97">
         <v>2904</v>
@@ -11217,12 +11300,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>36</v>
       </c>
       <c r="C98" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E98" t="s">
         <v>38</v>
@@ -11315,12 +11398,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>36</v>
       </c>
       <c r="C99" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E99" t="s">
         <v>38</v>
@@ -11413,12 +11496,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>36</v>
       </c>
       <c r="C100" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E100" t="s">
         <v>38</v>
@@ -11511,12 +11594,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>36</v>
       </c>
       <c r="C101" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="D101">
         <v>2904</v>
@@ -11527,6 +11610,27 @@
       <c r="F101" t="s">
         <v>39</v>
       </c>
+      <c r="G101" t="s">
+        <v>40</v>
+      </c>
+      <c r="H101">
+        <v>80</v>
+      </c>
+      <c r="I101">
+        <v>82</v>
+      </c>
+      <c r="J101">
+        <v>80</v>
+      </c>
+      <c r="K101">
+        <v>80</v>
+      </c>
+      <c r="L101">
+        <v>253</v>
+      </c>
+      <c r="M101" t="s">
+        <v>41</v>
+      </c>
       <c r="N101" t="s">
         <v>42</v>
       </c>
@@ -11591,12 +11695,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>36</v>
       </c>
       <c r="C102" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="E102" t="s">
         <v>38</v>
@@ -11604,6 +11708,27 @@
       <c r="F102" t="s">
         <v>39</v>
       </c>
+      <c r="G102" t="s">
+        <v>40</v>
+      </c>
+      <c r="H102">
+        <v>80</v>
+      </c>
+      <c r="I102">
+        <v>82</v>
+      </c>
+      <c r="J102">
+        <v>80</v>
+      </c>
+      <c r="K102">
+        <v>80</v>
+      </c>
+      <c r="L102">
+        <v>253</v>
+      </c>
+      <c r="M102" t="s">
+        <v>41</v>
+      </c>
       <c r="N102" t="s">
         <v>42</v>
       </c>
@@ -11668,12 +11793,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>36</v>
       </c>
       <c r="C103" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
@@ -11681,6 +11806,27 @@
       <c r="F103" t="s">
         <v>39</v>
       </c>
+      <c r="G103" t="s">
+        <v>40</v>
+      </c>
+      <c r="H103">
+        <v>80</v>
+      </c>
+      <c r="I103">
+        <v>82</v>
+      </c>
+      <c r="J103">
+        <v>80</v>
+      </c>
+      <c r="K103">
+        <v>80</v>
+      </c>
+      <c r="L103">
+        <v>253</v>
+      </c>
+      <c r="M103" t="s">
+        <v>41</v>
+      </c>
       <c r="N103" t="s">
         <v>42</v>
       </c>
@@ -11745,12 +11891,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>36</v>
       </c>
       <c r="C104" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="E104" t="s">
         <v>38</v>
@@ -11758,6 +11904,27 @@
       <c r="F104" t="s">
         <v>39</v>
       </c>
+      <c r="G104" t="s">
+        <v>40</v>
+      </c>
+      <c r="H104">
+        <v>80</v>
+      </c>
+      <c r="I104">
+        <v>82</v>
+      </c>
+      <c r="J104">
+        <v>80</v>
+      </c>
+      <c r="K104">
+        <v>80</v>
+      </c>
+      <c r="L104">
+        <v>253</v>
+      </c>
+      <c r="M104" t="s">
+        <v>41</v>
+      </c>
       <c r="N104" t="s">
         <v>42</v>
       </c>
@@ -11822,12 +11989,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>36</v>
       </c>
       <c r="C105" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D105">
         <v>360</v>
@@ -11923,12 +12090,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>36</v>
       </c>
       <c r="C106" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
@@ -12021,12 +12188,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>36</v>
       </c>
       <c r="C107" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
@@ -12119,12 +12286,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>36</v>
       </c>
       <c r="C108" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E108" t="s">
         <v>38</v>
@@ -12217,12 +12384,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>36</v>
       </c>
       <c r="C109" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E109" t="s">
         <v>38</v>
@@ -12315,12 +12482,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>36</v>
       </c>
       <c r="C110" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="E110" t="s">
         <v>38</v>
@@ -12413,12 +12580,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E111" t="s">
         <v>38</v>
@@ -12511,12 +12678,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>36</v>
       </c>
       <c r="C112" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E112" t="s">
         <v>38</v>
@@ -12609,12 +12776,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="113" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>36</v>
       </c>
       <c r="C113" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E113" t="s">
         <v>38</v>
@@ -12707,12 +12874,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>36</v>
       </c>
       <c r="C114" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="E114" t="s">
         <v>38</v>
@@ -12805,12 +12972,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>36</v>
       </c>
       <c r="C115" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E115" t="s">
         <v>38</v>
@@ -12903,12 +13070,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>36</v>
       </c>
       <c r="C116" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E116" t="s">
         <v>38</v>
@@ -13001,12 +13168,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>36</v>
       </c>
       <c r="C117" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E117" t="s">
         <v>38</v>
@@ -13099,12 +13266,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>36</v>
       </c>
       <c r="C118" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="E118" t="s">
         <v>38</v>
@@ -13197,12 +13364,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>36</v>
       </c>
       <c r="C119" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E119" t="s">
         <v>38</v>
@@ -13295,12 +13462,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>36</v>
       </c>
       <c r="C120" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="E120" t="s">
         <v>38</v>
@@ -13393,12 +13560,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>36</v>
       </c>
       <c r="C121" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D121">
         <v>360</v>
@@ -13494,12 +13661,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>36</v>
       </c>
       <c r="C122" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E122" t="s">
         <v>38</v>
@@ -13592,12 +13759,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>36</v>
       </c>
       <c r="C123" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E123" t="s">
         <v>38</v>
@@ -13690,12 +13857,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>36</v>
       </c>
       <c r="C124" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E124" t="s">
         <v>38</v>
@@ -13788,12 +13955,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>36</v>
       </c>
       <c r="C125" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E125" t="s">
         <v>38</v>
@@ -13886,12 +14053,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="126" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>36</v>
       </c>
       <c r="C126" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="E126" t="s">
         <v>38</v>
@@ -13984,12 +14151,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>36</v>
       </c>
       <c r="C127" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E127" t="s">
         <v>38</v>
@@ -14082,12 +14249,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>36</v>
       </c>
       <c r="C128" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E128" t="s">
         <v>38</v>
@@ -14180,12 +14347,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>36</v>
       </c>
       <c r="C129" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E129" t="s">
         <v>38</v>
@@ -14278,12 +14445,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>36</v>
       </c>
       <c r="C130" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E130" t="s">
         <v>38</v>
@@ -14376,12 +14543,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>36</v>
       </c>
       <c r="C131" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E131" t="s">
         <v>38</v>
@@ -14474,12 +14641,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>36</v>
       </c>
       <c r="C132" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E132" t="s">
         <v>38</v>
@@ -14572,12 +14739,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>36</v>
       </c>
       <c r="C133" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E133" t="s">
         <v>38</v>
@@ -14670,12 +14837,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>36</v>
       </c>
       <c r="C134" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E134" t="s">
         <v>38</v>
@@ -14768,12 +14935,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="135" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>36</v>
       </c>
       <c r="C135" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E135" t="s">
         <v>38</v>
@@ -14866,12 +15033,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>36</v>
       </c>
       <c r="C136" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E136" t="s">
         <v>38</v>
@@ -14964,7 +15131,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="137" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>36</v>
       </c>
@@ -15065,7 +15232,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>36</v>
       </c>
@@ -15166,7 +15333,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="139" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>36</v>
       </c>
@@ -15174,7 +15341,7 @@
         <v>357</v>
       </c>
       <c r="C139" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D139">
         <v>356</v>
@@ -15270,7 +15437,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>36</v>
       </c>
@@ -15278,7 +15445,7 @@
         <v>358</v>
       </c>
       <c r="C140" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D140">
         <v>356</v>
@@ -15374,7 +15541,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>36</v>
       </c>
@@ -15382,7 +15549,7 @@
         <v>359</v>
       </c>
       <c r="C141" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D141">
         <v>356</v>
@@ -15478,7 +15645,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="142" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>36</v>
       </c>
@@ -15579,7 +15746,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="143" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>36</v>
       </c>
@@ -15587,7 +15754,7 @@
         <v>3378</v>
       </c>
       <c r="C143" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D143">
         <v>3377</v>
@@ -15683,7 +15850,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="144" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>36</v>
       </c>
@@ -15691,7 +15858,7 @@
         <v>3381</v>
       </c>
       <c r="C144" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D144">
         <v>3377</v>
@@ -15787,7 +15954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>36</v>
       </c>
@@ -15795,7 +15962,7 @@
         <v>3379</v>
       </c>
       <c r="C145" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D145">
         <v>3377</v>
@@ -15891,7 +16058,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="146" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>36</v>
       </c>
@@ -15899,7 +16066,7 @@
         <v>3380</v>
       </c>
       <c r="C146" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D146">
         <v>3377</v>
@@ -15995,7 +16162,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="147" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>36</v>
       </c>
@@ -16003,7 +16170,7 @@
         <v>3383</v>
       </c>
       <c r="C147" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E147" t="s">
         <v>38</v>
@@ -16096,7 +16263,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="148" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -16104,7 +16271,7 @@
         <v>3366</v>
       </c>
       <c r="C148" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E148" t="s">
         <v>38</v>
@@ -16197,7 +16364,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="149" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -16301,7 +16468,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="150" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>36</v>
       </c>
@@ -16405,7 +16572,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="151" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>36</v>
       </c>
@@ -16413,7 +16580,7 @@
         <v>3370</v>
       </c>
       <c r="C151" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E151" t="s">
         <v>38</v>
@@ -16506,7 +16673,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="152" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>36</v>
       </c>
@@ -16610,7 +16777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="153" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>36</v>
       </c>
@@ -16618,7 +16785,7 @@
         <v>3373</v>
       </c>
       <c r="C153" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D153">
         <v>3371</v>
@@ -16714,7 +16881,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="154" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>36</v>
       </c>
@@ -16722,7 +16889,7 @@
         <v>3375</v>
       </c>
       <c r="C154" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D154">
         <v>3371</v>
@@ -16818,7 +16985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>36</v>
       </c>
@@ -16826,7 +16993,7 @@
         <v>3372</v>
       </c>
       <c r="C155" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D155">
         <v>3371</v>
@@ -16922,7 +17089,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="156" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>36</v>
       </c>
@@ -16930,7 +17097,7 @@
         <v>3374</v>
       </c>
       <c r="C156" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D156">
         <v>3371</v>
@@ -17026,7 +17193,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="157" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>36</v>
       </c>
@@ -17127,12 +17294,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="158" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>36</v>
       </c>
       <c r="C158" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="D158">
         <v>401</v>
@@ -17143,6 +17310,27 @@
       <c r="F158" t="s">
         <v>39</v>
       </c>
+      <c r="G158" t="s">
+        <v>42</v>
+      </c>
+      <c r="H158">
+        <v>80</v>
+      </c>
+      <c r="I158">
+        <v>80</v>
+      </c>
+      <c r="J158">
+        <v>80</v>
+      </c>
+      <c r="K158">
+        <v>80</v>
+      </c>
+      <c r="L158" t="s">
+        <v>55</v>
+      </c>
+      <c r="M158" t="s">
+        <v>41</v>
+      </c>
       <c r="N158" t="s">
         <v>42</v>
       </c>
@@ -17207,7 +17395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>36</v>
       </c>
@@ -17215,7 +17403,7 @@
         <v>402</v>
       </c>
       <c r="C159" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D159">
         <v>401</v>
@@ -17316,7 +17504,7 @@
         <v>36</v>
       </c>
       <c r="C160" t="s">
-        <v>247</v>
+        <v>115</v>
       </c>
       <c r="D160">
         <v>401</v>
@@ -17348,6 +17536,27 @@
       <c r="M160" t="s">
         <v>41</v>
       </c>
+      <c r="N160" t="s">
+        <v>42</v>
+      </c>
+      <c r="O160">
+        <v>150</v>
+      </c>
+      <c r="P160">
+        <v>152</v>
+      </c>
+      <c r="Q160">
+        <v>150</v>
+      </c>
+      <c r="R160">
+        <v>150</v>
+      </c>
+      <c r="S160">
+        <v>150</v>
+      </c>
+      <c r="T160" t="s">
+        <v>41</v>
+      </c>
       <c r="U160" t="s">
         <v>42</v>
       </c>
@@ -17369,8 +17578,29 @@
       <c r="AA160" t="s">
         <v>41</v>
       </c>
+      <c r="AB160" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC160">
+        <v>1</v>
+      </c>
+      <c r="AD160">
+        <v>1</v>
+      </c>
+      <c r="AE160">
+        <v>1</v>
+      </c>
+      <c r="AF160">
+        <v>1</v>
+      </c>
+      <c r="AG160">
+        <v>1</v>
+      </c>
+      <c r="AH160" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="161" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>36</v>
       </c>
@@ -17474,7 +17704,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="162" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>36</v>
       </c>
@@ -17482,7 +17712,7 @@
         <v>404</v>
       </c>
       <c r="C162" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D162">
         <v>401</v>
@@ -17578,7 +17808,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>36</v>
       </c>
@@ -17586,7 +17816,7 @@
         <v>403</v>
       </c>
       <c r="C163" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D163">
         <v>401</v>
@@ -17682,7 +17912,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="164" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>36</v>
       </c>
@@ -17690,7 +17920,7 @@
         <v>2884</v>
       </c>
       <c r="C164" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E164" t="s">
         <v>38</v>
@@ -17783,7 +18013,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>36</v>
       </c>
@@ -17881,12 +18111,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>36</v>
       </c>
       <c r="C166" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E166" t="s">
         <v>38</v>
@@ -17979,12 +18209,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>36</v>
       </c>
       <c r="C167" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E167" t="s">
         <v>38</v>
@@ -18077,12 +18307,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>36</v>
       </c>
       <c r="C168" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E168" t="s">
         <v>38</v>
@@ -18175,12 +18405,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="169" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>36</v>
       </c>
       <c r="C169" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E169" t="s">
         <v>38</v>
@@ -18281,7 +18511,7 @@
         <v>380</v>
       </c>
       <c r="C170" t="s">
-        <v>237</v>
+        <v>67</v>
       </c>
       <c r="E170" t="s">
         <v>38</v>
@@ -18352,8 +18582,29 @@
       <c r="AA170" t="s">
         <v>41</v>
       </c>
+      <c r="AB170" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC170">
+        <v>90</v>
+      </c>
+      <c r="AD170">
+        <v>92</v>
+      </c>
+      <c r="AE170">
+        <v>90</v>
+      </c>
+      <c r="AF170">
+        <v>90</v>
+      </c>
+      <c r="AG170">
+        <v>253</v>
+      </c>
+      <c r="AH170" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="171" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>36</v>
       </c>
@@ -18361,7 +18612,7 @@
         <v>381</v>
       </c>
       <c r="C171" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D171">
         <v>380</v>
@@ -18391,7 +18642,7 @@
         <v>253</v>
       </c>
       <c r="M171" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N171" t="s">
         <v>42</v>
@@ -18412,7 +18663,7 @@
         <v>253</v>
       </c>
       <c r="T171" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="U171" t="s">
         <v>42</v>
@@ -18433,7 +18684,7 @@
         <v>253</v>
       </c>
       <c r="AA171" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB171" t="s">
         <v>42</v>
@@ -18454,10 +18705,10 @@
         <v>253</v>
       </c>
       <c r="AH171" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="172" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>36</v>
       </c>
@@ -18465,7 +18716,7 @@
         <v>382</v>
       </c>
       <c r="C172" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D172">
         <v>380</v>
@@ -18495,7 +18746,7 @@
         <v>253</v>
       </c>
       <c r="M172" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N172" t="s">
         <v>42</v>
@@ -18516,7 +18767,7 @@
         <v>253</v>
       </c>
       <c r="T172" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U172" t="s">
         <v>42</v>
@@ -18537,7 +18788,7 @@
         <v>253</v>
       </c>
       <c r="AA172" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AB172" t="s">
         <v>42</v>
@@ -18558,10 +18809,10 @@
         <v>253</v>
       </c>
       <c r="AH172" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="173" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>36</v>
       </c>
@@ -18569,7 +18820,7 @@
         <v>383</v>
       </c>
       <c r="C173" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D173">
         <v>380</v>
@@ -18599,7 +18850,7 @@
         <v>253</v>
       </c>
       <c r="M173" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N173" t="s">
         <v>42</v>
@@ -18620,7 +18871,7 @@
         <v>253</v>
       </c>
       <c r="T173" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U173" t="s">
         <v>42</v>
@@ -18641,7 +18892,7 @@
         <v>253</v>
       </c>
       <c r="AA173" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB173" t="s">
         <v>42</v>
@@ -18662,15 +18913,15 @@
         <v>253</v>
       </c>
       <c r="AH173" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="174" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>36</v>
       </c>
       <c r="C174" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D174">
         <v>380</v>
@@ -18700,7 +18951,7 @@
         <v>253</v>
       </c>
       <c r="M174" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N174" t="s">
         <v>42</v>
@@ -18721,7 +18972,7 @@
         <v>253</v>
       </c>
       <c r="T174" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="U174" t="s">
         <v>42</v>
@@ -18742,7 +18993,7 @@
         <v>253</v>
       </c>
       <c r="AA174" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AB174" t="s">
         <v>42</v>
@@ -18763,15 +19014,15 @@
         <v>253</v>
       </c>
       <c r="AH174" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="175" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>36</v>
       </c>
       <c r="C175" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D175">
         <v>380</v>
@@ -18801,7 +19052,7 @@
         <v>253</v>
       </c>
       <c r="M175" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N175" t="s">
         <v>42</v>
@@ -18822,7 +19073,7 @@
         <v>253</v>
       </c>
       <c r="T175" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="U175" t="s">
         <v>42</v>
@@ -18843,7 +19094,7 @@
         <v>253</v>
       </c>
       <c r="AA175" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB175" t="s">
         <v>42</v>
@@ -18864,10 +19115,10 @@
         <v>253</v>
       </c>
       <c r="AH175" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="176" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>36</v>
       </c>
@@ -18875,7 +19126,7 @@
         <v>2883</v>
       </c>
       <c r="C176" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E176" t="s">
         <v>38</v>
@@ -18968,7 +19219,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="177" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>36</v>
       </c>
@@ -19069,7 +19320,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="178" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>36</v>
       </c>
@@ -19077,7 +19328,7 @@
         <v>385</v>
       </c>
       <c r="C178" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D178">
         <v>384</v>
@@ -19173,7 +19424,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="179" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>36</v>
       </c>
@@ -19181,7 +19432,7 @@
         <v>410</v>
       </c>
       <c r="C179" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E179" t="s">
         <v>38</v>
@@ -19274,7 +19525,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="180" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>36</v>
       </c>
@@ -19282,7 +19533,7 @@
         <v>367</v>
       </c>
       <c r="C180" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E180" t="s">
         <v>38</v>
@@ -19375,7 +19626,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="181" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>36</v>
       </c>
@@ -19383,7 +19634,7 @@
         <v>3369</v>
       </c>
       <c r="C181" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E181" t="s">
         <v>38</v>
@@ -19476,7 +19727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="182" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>36</v>
       </c>
@@ -19577,7 +19828,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="183" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>36</v>
       </c>
@@ -19585,7 +19836,7 @@
         <v>398</v>
       </c>
       <c r="C183" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E183" t="s">
         <v>38</v>
@@ -19615,7 +19866,7 @@
         <v>41</v>
       </c>
       <c r="N183" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O183">
         <v>90</v>
@@ -19636,7 +19887,7 @@
         <v>41</v>
       </c>
       <c r="U183" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V183">
         <v>90</v>
@@ -19657,7 +19908,7 @@
         <v>41</v>
       </c>
       <c r="AB183" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC183">
         <v>90</v>
@@ -19678,7 +19929,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="184" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>36</v>
       </c>
@@ -19779,12 +20030,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="185" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>36</v>
       </c>
       <c r="C185" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E185" t="s">
         <v>38</v>
@@ -19877,7 +20128,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="186" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>36</v>
       </c>
@@ -19885,7 +20136,7 @@
         <v>354</v>
       </c>
       <c r="C186" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E186" t="s">
         <v>38</v>
@@ -19978,7 +20229,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="187" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>36</v>
       </c>
@@ -20079,7 +20330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="188" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>36</v>
       </c>
@@ -20087,7 +20338,7 @@
         <v>407</v>
       </c>
       <c r="C188" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D188">
         <v>406</v>
@@ -20183,7 +20434,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="189" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>36</v>
       </c>
@@ -20191,7 +20442,7 @@
         <v>409</v>
       </c>
       <c r="C189" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D189">
         <v>406</v>
@@ -20287,7 +20538,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="190" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>36</v>
       </c>
@@ -20295,7 +20546,7 @@
         <v>408</v>
       </c>
       <c r="C190" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D190">
         <v>406</v>
@@ -20391,7 +20642,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="191" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>36</v>
       </c>
@@ -20492,7 +20743,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="192" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>36</v>
       </c>
@@ -20500,7 +20751,7 @@
         <v>355</v>
       </c>
       <c r="C192" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E192" t="s">
         <v>38</v>
@@ -20594,10 +20845,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ192" xr:uid="{BBFCB9C8-D392-4191-A97F-C84CACD3AE44}">
-    <filterColumn colId="31">
-      <filters blank="1"/>
-    </filterColumn>
+  <autoFilter ref="A1:AJ192" xr:uid="{F6403CEB-2A2A-412E-90F1-02903395DB77}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ192">
       <sortCondition ref="C1:C192"/>
     </sortState>
